--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>905.7855941293528</v>
+        <v>1052.511927958093</v>
       </c>
       <c r="AB2" t="n">
-        <v>1239.335810327928</v>
+        <v>1440.093253381409</v>
       </c>
       <c r="AC2" t="n">
-        <v>1121.055340008964</v>
+        <v>1302.652774462262</v>
       </c>
       <c r="AD2" t="n">
-        <v>905785.5941293528</v>
+        <v>1052511.927958093</v>
       </c>
       <c r="AE2" t="n">
-        <v>1239335.810327928</v>
+        <v>1440093.253381409</v>
       </c>
       <c r="AF2" t="n">
         <v>5.37679523715125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1121055.340008964</v>
+        <v>1302652.774462262</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.4160981990265</v>
+        <v>427.7242683618132</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.0865207062148</v>
+        <v>585.2312138355859</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.458614168659</v>
+        <v>529.3775681642841</v>
       </c>
       <c r="AD3" t="n">
-        <v>349416.0981990265</v>
+        <v>427724.2683618133</v>
       </c>
       <c r="AE3" t="n">
-        <v>478086.5207062148</v>
+        <v>585231.2138355859</v>
       </c>
       <c r="AF3" t="n">
         <v>9.974230144635557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.7375</v>
       </c>
       <c r="AH3" t="n">
-        <v>432458.614168659</v>
+        <v>529377.5681642841</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.9268269364777</v>
+        <v>348.4464758289162</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.0082341145103</v>
+        <v>476.75984060271</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.4544658060535</v>
+        <v>431.2585505522254</v>
       </c>
       <c r="AD4" t="n">
-        <v>279926.8269364777</v>
+        <v>348446.4758289162</v>
       </c>
       <c r="AE4" t="n">
-        <v>383008.2341145104</v>
+        <v>476759.84060271</v>
       </c>
       <c r="AF4" t="n">
         <v>1.147720149087582e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>346454.4658060535</v>
+        <v>431258.5505522254</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.6258389670843</v>
+        <v>323.3238122002508</v>
       </c>
       <c r="AB5" t="n">
-        <v>362.0727473428386</v>
+        <v>442.3859038922731</v>
       </c>
       <c r="AC5" t="n">
-        <v>327.5170325087297</v>
+        <v>400.1652141173094</v>
       </c>
       <c r="AD5" t="n">
-        <v>264625.8389670844</v>
+        <v>323323.8122002508</v>
       </c>
       <c r="AE5" t="n">
-        <v>362072.7473428386</v>
+        <v>442385.9038922731</v>
       </c>
       <c r="AF5" t="n">
         <v>1.200644328071731e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.07083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>327517.0325087297</v>
+        <v>400165.2141173094</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.0985098187467</v>
+        <v>695.2309342012634</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.3481291571744</v>
+        <v>951.2456355983056</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.7275357779966</v>
+        <v>860.4600872184374</v>
       </c>
       <c r="AD2" t="n">
-        <v>579098.5098187467</v>
+        <v>695230.9342012634</v>
       </c>
       <c r="AE2" t="n">
-        <v>792348.1291571744</v>
+        <v>951245.6355983056</v>
       </c>
       <c r="AF2" t="n">
         <v>7.51948795466578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>716727.5357779966</v>
+        <v>860460.0872184373</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.8775853328644</v>
+        <v>348.2536476961677</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.6266625280828</v>
+        <v>476.4960046445067</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.2545740341897</v>
+        <v>431.019894727577</v>
       </c>
       <c r="AD3" t="n">
-        <v>270877.5853328644</v>
+        <v>348253.6476961677</v>
       </c>
       <c r="AE3" t="n">
-        <v>370626.6625280828</v>
+        <v>476496.0046445067</v>
       </c>
       <c r="AF3" t="n">
         <v>1.227996185712082e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>335254.5740341897</v>
+        <v>431019.894727577</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.1272169320837</v>
+        <v>322.7895757563584</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.0763136247566</v>
+        <v>441.6549380208911</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.7609601841972</v>
+        <v>399.5040106027752</v>
       </c>
       <c r="AD4" t="n">
-        <v>255127.2169320837</v>
+        <v>322789.5757563584</v>
       </c>
       <c r="AE4" t="n">
-        <v>349076.3136247565</v>
+        <v>441654.938020891</v>
       </c>
       <c r="AF4" t="n">
         <v>1.291057008835512e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>315760.9601841972</v>
+        <v>399504.0106027751</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.4150108361935</v>
+        <v>335.1573795275205</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.3113065255274</v>
+        <v>458.5771127695887</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.3054555167899</v>
+        <v>414.8111567438785</v>
       </c>
       <c r="AD2" t="n">
-        <v>260415.0108361935</v>
+        <v>335157.3795275205</v>
       </c>
       <c r="AE2" t="n">
-        <v>356311.3065255274</v>
+        <v>458577.1127695887</v>
       </c>
       <c r="AF2" t="n">
         <v>1.573013078900696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>322305.4555167899</v>
+        <v>414811.1567438785</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.7333133129769</v>
+        <v>335.4756820043039</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.7468220167767</v>
+        <v>459.012628260838</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.6994060208041</v>
+        <v>415.2051072478928</v>
       </c>
       <c r="AD3" t="n">
-        <v>260733.3133129769</v>
+        <v>335475.6820043039</v>
       </c>
       <c r="AE3" t="n">
-        <v>356746.8220167767</v>
+        <v>459012.628260838</v>
       </c>
       <c r="AF3" t="n">
         <v>1.576752458271232e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.20416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>322699.4060208041</v>
+        <v>415205.1072478928</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.3169039931274</v>
+        <v>391.1101452132541</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.4304988434272</v>
+        <v>535.1341552426162</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.2553775503179</v>
+        <v>484.0617025317641</v>
       </c>
       <c r="AD2" t="n">
-        <v>315316.9039931274</v>
+        <v>391110.1452132541</v>
       </c>
       <c r="AE2" t="n">
-        <v>431430.4988434272</v>
+        <v>535134.1552426162</v>
       </c>
       <c r="AF2" t="n">
         <v>1.263883441819372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>390255.3775503178</v>
+        <v>484061.7025317641</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.9970409805296</v>
+        <v>319.3077120721806</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.1617129111113</v>
+        <v>436.8908985192144</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.1245248719936</v>
+        <v>395.194644344767</v>
       </c>
       <c r="AD3" t="n">
-        <v>252997.0409805297</v>
+        <v>319307.7120721806</v>
       </c>
       <c r="AE3" t="n">
-        <v>346161.7129111113</v>
+        <v>436890.8985192144</v>
       </c>
       <c r="AF3" t="n">
         <v>1.468743259422008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>313124.5248719936</v>
+        <v>395194.644344767</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.4694360383192</v>
+        <v>353.696459340133</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.0682146570102</v>
+        <v>483.9430996556829</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7494236441457</v>
+        <v>437.7562494429501</v>
       </c>
       <c r="AD2" t="n">
-        <v>270469.4360383192</v>
+        <v>353696.459340133</v>
       </c>
       <c r="AE2" t="n">
-        <v>370068.2146570102</v>
+        <v>483943.0996556829</v>
       </c>
       <c r="AF2" t="n">
         <v>1.657369479295199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>334749.4236441457</v>
+        <v>437756.2494429501</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>649.5248006601656</v>
+        <v>765.9646252383823</v>
       </c>
       <c r="AB2" t="n">
-        <v>888.7084872750752</v>
+        <v>1048.026592225503</v>
       </c>
       <c r="AC2" t="n">
-        <v>803.8913965597369</v>
+        <v>948.0044051780608</v>
       </c>
       <c r="AD2" t="n">
-        <v>649524.8006601656</v>
+        <v>765964.6252383823</v>
       </c>
       <c r="AE2" t="n">
-        <v>888708.4872750752</v>
+        <v>1048026.592225503</v>
       </c>
       <c r="AF2" t="n">
         <v>6.923162437384394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>803891.3965597369</v>
+        <v>948004.4051780608</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.0705091357229</v>
+        <v>363.9656902198059</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.096732308511</v>
+        <v>497.9939143917433</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.4348687338206</v>
+        <v>450.4660741410432</v>
       </c>
       <c r="AD3" t="n">
-        <v>296070.5091357229</v>
+        <v>363965.6902198059</v>
       </c>
       <c r="AE3" t="n">
-        <v>405096.732308511</v>
+        <v>497993.9143917433</v>
       </c>
       <c r="AF3" t="n">
         <v>1.158271259349304e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>366434.8687338206</v>
+        <v>450466.0741410432</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.0780080886681</v>
+        <v>325.9390237539702</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.1137162650784</v>
+        <v>445.9641517150629</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.413038782952</v>
+        <v>403.4019589899946</v>
       </c>
       <c r="AD4" t="n">
-        <v>258078.0080886681</v>
+        <v>325939.0237539702</v>
       </c>
       <c r="AE4" t="n">
-        <v>353113.7162650784</v>
+        <v>445964.1517150629</v>
       </c>
       <c r="AF4" t="n">
         <v>1.262683794569486e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>319413.038782952</v>
+        <v>403401.9589899946</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.6698279196274</v>
+        <v>326.5308435849295</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.9234702670453</v>
+        <v>446.7739057170297</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.1455109994679</v>
+        <v>404.1344312065105</v>
       </c>
       <c r="AD5" t="n">
-        <v>258669.8279196274</v>
+        <v>326530.8435849295</v>
       </c>
       <c r="AE5" t="n">
-        <v>353923.4702670453</v>
+        <v>446773.9057170297</v>
       </c>
       <c r="AF5" t="n">
         <v>1.262643574024332e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>320145.5109994679</v>
+        <v>404134.4312065105</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6342895219926</v>
+        <v>375.461142315716</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.0809479857174</v>
+        <v>513.7224990929217</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.0430469849912</v>
+        <v>464.6935447935483</v>
       </c>
       <c r="AD2" t="n">
-        <v>283634.2895219926</v>
+        <v>375461.142315716</v>
       </c>
       <c r="AE2" t="n">
-        <v>388080.9479857174</v>
+        <v>513722.4990929217</v>
       </c>
       <c r="AF2" t="n">
         <v>1.685854831717725e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.82083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>351043.0469849912</v>
+        <v>464693.5447935483</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.1882999970231</v>
+        <v>526.9712526064683</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.97085474117</v>
+        <v>721.0253161470509</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.6648643939672</v>
+        <v>652.2116719393625</v>
       </c>
       <c r="AD2" t="n">
-        <v>431188.2999970231</v>
+        <v>526971.2526064683</v>
       </c>
       <c r="AE2" t="n">
-        <v>589970.85474117</v>
+        <v>721025.3161470509</v>
       </c>
       <c r="AF2" t="n">
         <v>9.65447348066312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>533664.8643939672</v>
+        <v>652211.6719393625</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.3238888244378</v>
+        <v>315.4429953095922</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.7676999662268</v>
+        <v>431.6030225453705</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.3407475485133</v>
+        <v>390.4114358322863</v>
       </c>
       <c r="AD3" t="n">
-        <v>248323.8888244378</v>
+        <v>315442.9953095922</v>
       </c>
       <c r="AE3" t="n">
-        <v>339767.6999662268</v>
+        <v>431603.0225453706</v>
       </c>
       <c r="AF3" t="n">
         <v>1.372699230522842e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>307340.7475485133</v>
+        <v>390411.4358322863</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.1775065994507</v>
+        <v>315.2966130846051</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.5674133480716</v>
+        <v>431.4027359272152</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.1595760040907</v>
+        <v>390.2302642878636</v>
       </c>
       <c r="AD4" t="n">
-        <v>248177.5065994507</v>
+        <v>315296.6130846051</v>
       </c>
       <c r="AE4" t="n">
-        <v>339567.4133480716</v>
+        <v>431402.7359272152</v>
       </c>
       <c r="AF4" t="n">
         <v>1.376553490662741e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>307159.5760040907</v>
+        <v>390230.2642878636</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.575768161112</v>
+        <v>629.7377629288414</v>
       </c>
       <c r="AB2" t="n">
-        <v>716.3794645307131</v>
+        <v>861.634989308582</v>
       </c>
       <c r="AC2" t="n">
-        <v>648.0092138807944</v>
+        <v>779.401755241273</v>
       </c>
       <c r="AD2" t="n">
-        <v>523575.768161112</v>
+        <v>629737.7629288414</v>
       </c>
       <c r="AE2" t="n">
-        <v>716379.4645307132</v>
+        <v>861634.989308582</v>
       </c>
       <c r="AF2" t="n">
         <v>8.1835705152292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.5375</v>
       </c>
       <c r="AH2" t="n">
-        <v>648009.2138807944</v>
+        <v>779401.755241273</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.5249231785718</v>
+        <v>326.0825562125814</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.7252052075871</v>
+        <v>446.16053915714</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.9661680790177</v>
+        <v>403.5796034902314</v>
       </c>
       <c r="AD3" t="n">
-        <v>258524.9231785719</v>
+        <v>326082.5562125815</v>
       </c>
       <c r="AE3" t="n">
-        <v>353725.205207587</v>
+        <v>446160.53915714</v>
       </c>
       <c r="AF3" t="n">
         <v>1.293211427503524e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.62916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>319966.1680790177</v>
+        <v>403579.6034902314</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.5478722969667</v>
+        <v>321.0040201044943</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.9153846192227</v>
+        <v>439.2118620048546</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.8062672100679</v>
+        <v>397.2940983328304</v>
       </c>
       <c r="AD4" t="n">
-        <v>253547.8722969667</v>
+        <v>321004.0201044943</v>
       </c>
       <c r="AE4" t="n">
-        <v>346915.3846192227</v>
+        <v>439211.8620048546</v>
       </c>
       <c r="AF4" t="n">
         <v>1.313686217523534e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>313806.2672100679</v>
+        <v>397294.0983328304</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.6890025201126</v>
+        <v>942.2672069684241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.379237738206</v>
+        <v>1289.251562469514</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.1697104874481</v>
+        <v>1166.207202823355</v>
       </c>
       <c r="AD2" t="n">
-        <v>805689.0025201126</v>
+        <v>942267.2069684241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102379.237738206</v>
+        <v>1289251.562469514</v>
       </c>
       <c r="AF2" t="n">
         <v>5.857992783930949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>997169.7104874481</v>
+        <v>1166207.202823355</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.7863688044484</v>
+        <v>412.7875633921327</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.0694795304436</v>
+        <v>564.7941551351529</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.3519713086096</v>
+        <v>510.8909936626283</v>
       </c>
       <c r="AD3" t="n">
-        <v>334786.3688044484</v>
+        <v>412787.5633921327</v>
       </c>
       <c r="AE3" t="n">
-        <v>458069.4795304436</v>
+        <v>564794.1551351529</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045847644927369e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.32083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>414351.9713086096</v>
+        <v>510890.9936626283</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.1844304825829</v>
+        <v>336.422790093496</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.9417692483211</v>
+        <v>460.3085033319305</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.9213617972683</v>
+        <v>416.3773058209723</v>
       </c>
       <c r="AD4" t="n">
-        <v>268184.4304825828</v>
+        <v>336422.790093496</v>
       </c>
       <c r="AE4" t="n">
-        <v>366941.7692483211</v>
+        <v>460308.5033319305</v>
       </c>
       <c r="AF4" t="n">
         <v>1.198863815657108e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>331921.3617972683</v>
+        <v>416377.3058209723</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.3492079236466</v>
+        <v>321.8930633953502</v>
       </c>
       <c r="AB5" t="n">
-        <v>360.3260044282204</v>
+        <v>440.4282902572256</v>
       </c>
       <c r="AC5" t="n">
-        <v>325.9369962863137</v>
+        <v>398.3944323800629</v>
       </c>
       <c r="AD5" t="n">
-        <v>263349.2079236467</v>
+        <v>321893.0633953502</v>
       </c>
       <c r="AE5" t="n">
-        <v>360326.0044282204</v>
+        <v>440428.2902572256</v>
       </c>
       <c r="AF5" t="n">
         <v>1.216515090440961e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>325936.9962863137</v>
+        <v>398394.4323800629</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.541303205998</v>
+        <v>438.1174958823674</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.3625640710676</v>
+        <v>599.4516862460457</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.3265579562348</v>
+        <v>542.2408586464481</v>
       </c>
       <c r="AD2" t="n">
-        <v>352541.303205998</v>
+        <v>438117.4958823674</v>
       </c>
       <c r="AE2" t="n">
-        <v>482362.5640710676</v>
+        <v>599451.6862460457</v>
       </c>
       <c r="AF2" t="n">
         <v>1.147899573411421e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>436326.5579562348</v>
+        <v>542240.8586464481</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.6228083428421</v>
+        <v>321.7124134189321</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.0719624880488</v>
+        <v>440.1811169897759</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.9977260682513</v>
+        <v>398.1708489823487</v>
       </c>
       <c r="AD3" t="n">
-        <v>245622.8083428422</v>
+        <v>321712.4134189321</v>
       </c>
       <c r="AE3" t="n">
-        <v>336071.9624880488</v>
+        <v>440181.1169897759</v>
       </c>
       <c r="AF3" t="n">
         <v>1.430895362830383e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>303997.7260682513</v>
+        <v>398170.8489823487</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.4847920574825</v>
+        <v>329.6580935878793</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.1973195695424</v>
+        <v>451.0527471355987</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.9658560879365</v>
+        <v>408.004906005483</v>
       </c>
       <c r="AD2" t="n">
-        <v>254484.7920574825</v>
+        <v>329658.0935878793</v>
       </c>
       <c r="AE2" t="n">
-        <v>348197.3195695424</v>
+        <v>451052.7471355987</v>
       </c>
       <c r="AF2" t="n">
         <v>1.515658483505447e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>314965.8560879365</v>
+        <v>408004.906005483</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.8564892532979</v>
+        <v>326.0297907836947</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.2329156034369</v>
+        <v>446.0883431694907</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.4752478687698</v>
+        <v>403.5142977863156</v>
       </c>
       <c r="AD3" t="n">
-        <v>250856.4892532979</v>
+        <v>326029.7907836947</v>
       </c>
       <c r="AE3" t="n">
-        <v>343232.9156034369</v>
+        <v>446088.3431694907</v>
       </c>
       <c r="AF3" t="n">
         <v>1.542314971724199e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH3" t="n">
-        <v>310475.2478687698</v>
+        <v>403514.2977863156</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.842266358489</v>
+        <v>334.2900056997074</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.527652263429</v>
+        <v>457.3903336325422</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.5965921176005</v>
+        <v>413.7376421420167</v>
       </c>
       <c r="AD2" t="n">
-        <v>259842.266358489</v>
+        <v>334290.0056997074</v>
       </c>
       <c r="AE2" t="n">
-        <v>355527.652263429</v>
+        <v>457390.3336325422</v>
       </c>
       <c r="AF2" t="n">
         <v>1.617360153702539e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>321596.5921176005</v>
+        <v>413737.6421420167</v>
       </c>
     </row>
     <row r="3">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.8130469387132</v>
+        <v>335.2607862799317</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8559170811084</v>
+        <v>458.7185984502216</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.7980892053119</v>
+        <v>414.9391392297282</v>
       </c>
       <c r="AD3" t="n">
-        <v>260813.0469387132</v>
+        <v>335260.7862799317</v>
       </c>
       <c r="AE3" t="n">
-        <v>356855.9170811084</v>
+        <v>458718.5984502216</v>
       </c>
       <c r="AF3" t="n">
         <v>1.617298934119902e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>322798.0892053119</v>
+        <v>414939.1392297282</v>
       </c>
     </row>
   </sheetData>
@@ -12895,28 +12895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.7231620512607</v>
+        <v>410.9497011877776</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.1451384569739</v>
+        <v>562.2795109863961</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.569883137589</v>
+        <v>508.6163436221038</v>
       </c>
       <c r="AD2" t="n">
-        <v>310723.1620512607</v>
+        <v>410949.7011877776</v>
       </c>
       <c r="AE2" t="n">
-        <v>425145.1384569739</v>
+        <v>562279.5109863961</v>
       </c>
       <c r="AF2" t="n">
         <v>1.688598616521146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>384569.883137589</v>
+        <v>508616.3436221038</v>
       </c>
     </row>
   </sheetData>
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.1749286516717</v>
+        <v>572.3119607661394</v>
       </c>
       <c r="AB2" t="n">
-        <v>651.5235447364456</v>
+        <v>783.0624733419833</v>
       </c>
       <c r="AC2" t="n">
-        <v>589.3430520458367</v>
+        <v>708.3280899213077</v>
       </c>
       <c r="AD2" t="n">
-        <v>476174.9286516717</v>
+        <v>572311.9607661393</v>
       </c>
       <c r="AE2" t="n">
-        <v>651523.5447364456</v>
+        <v>783062.4733419833</v>
       </c>
       <c r="AF2" t="n">
         <v>8.869058642318228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.43333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>589343.0520458367</v>
+        <v>708328.0899213076</v>
       </c>
     </row>
     <row r="3">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.7354684781398</v>
+        <v>314.977029597178</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.9625972891488</v>
+        <v>430.965467700689</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.6124827409666</v>
+        <v>389.8347283271673</v>
       </c>
       <c r="AD3" t="n">
-        <v>247735.4684781398</v>
+        <v>314977.029597178</v>
       </c>
       <c r="AE3" t="n">
-        <v>338962.5972891488</v>
+        <v>430965.467700689</v>
       </c>
       <c r="AF3" t="n">
         <v>1.360850263283806e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>306612.4827409666</v>
+        <v>389834.7283271673</v>
       </c>
     </row>
     <row r="4">
@@ -13404,28 +13404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.7377512642003</v>
+        <v>321.0807976097237</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.1751853990604</v>
+        <v>439.3169123746941</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.0412729681106</v>
+        <v>397.3891228428116</v>
       </c>
       <c r="AD4" t="n">
-        <v>253737.7512642003</v>
+        <v>321080.7976097238</v>
       </c>
       <c r="AE4" t="n">
-        <v>347175.1853990604</v>
+        <v>439316.9123746941</v>
       </c>
       <c r="AF4" t="n">
         <v>1.329010386254984e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.6375</v>
       </c>
       <c r="AH4" t="n">
-        <v>314041.2729681106</v>
+        <v>397389.1228428116</v>
       </c>
     </row>
   </sheetData>
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>717.4319891504915</v>
+        <v>844.0042634589705</v>
       </c>
       <c r="AB2" t="n">
-        <v>981.6220984212587</v>
+        <v>1154.803868104765</v>
       </c>
       <c r="AC2" t="n">
-        <v>887.9374630632009</v>
+        <v>1044.591007710254</v>
       </c>
       <c r="AD2" t="n">
-        <v>717431.9891504915</v>
+        <v>844004.2634589705</v>
       </c>
       <c r="AE2" t="n">
-        <v>981622.0984212586</v>
+        <v>1154803.868104765</v>
       </c>
       <c r="AF2" t="n">
         <v>6.374688782371523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.69166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>887937.4630632009</v>
+        <v>1044591.007710254</v>
       </c>
     </row>
     <row r="3">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.8191462601174</v>
+        <v>388.675611185016</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.2764682860559</v>
+        <v>531.8031183811196</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.6886790321059</v>
+        <v>481.0485751531892</v>
       </c>
       <c r="AD3" t="n">
-        <v>310819.1462601174</v>
+        <v>388675.6111850159</v>
       </c>
       <c r="AE3" t="n">
-        <v>425276.4682860559</v>
+        <v>531803.1183811196</v>
       </c>
       <c r="AF3" t="n">
         <v>1.097991897307669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>384688.679032106</v>
+        <v>481048.5751531892</v>
       </c>
     </row>
     <row r="4">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.1715867422539</v>
+        <v>329.2244030664881</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.3464870579725</v>
+        <v>450.4593526311558</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.2418398721034</v>
+        <v>407.4681442397097</v>
       </c>
       <c r="AD4" t="n">
-        <v>261171.5867422539</v>
+        <v>329224.4030664881</v>
       </c>
       <c r="AE4" t="n">
-        <v>357346.4870579725</v>
+        <v>450459.3526311558</v>
       </c>
       <c r="AF4" t="n">
         <v>1.237048860819788e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH4" t="n">
-        <v>323241.8398721034</v>
+        <v>407468.1442397097</v>
       </c>
     </row>
     <row r="5">
@@ -14019,28 +14019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.8935736036295</v>
+        <v>328.9463899278637</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.9660972166326</v>
+        <v>450.0789627898159</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.8977539033405</v>
+        <v>407.1240582709467</v>
       </c>
       <c r="AD5" t="n">
-        <v>260893.5736036295</v>
+        <v>328946.3899278637</v>
       </c>
       <c r="AE5" t="n">
-        <v>356966.0972166326</v>
+        <v>450078.9627898159</v>
       </c>
       <c r="AF5" t="n">
         <v>1.23983943301011e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>322897.7539033404</v>
+        <v>407124.0582709467</v>
       </c>
     </row>
   </sheetData>
@@ -14316,28 +14316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.5962370203682</v>
+        <v>494.9477732521703</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.6438298615574</v>
+        <v>677.2093789183001</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.3360678537389</v>
+        <v>612.5774662636696</v>
       </c>
       <c r="AD2" t="n">
-        <v>377596.2370203682</v>
+        <v>494947.7732521703</v>
       </c>
       <c r="AE2" t="n">
-        <v>516643.8298615573</v>
+        <v>677209.3789183001</v>
       </c>
       <c r="AF2" t="n">
         <v>1.611889624517638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>467336.067853739</v>
+        <v>612577.4662636697</v>
       </c>
     </row>
   </sheetData>
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.543969863347</v>
+        <v>355.987347520978</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.8526362934772</v>
+        <v>487.0775939315688</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.2182794261856</v>
+        <v>440.5915919844356</v>
       </c>
       <c r="AD2" t="n">
-        <v>280543.969863347</v>
+        <v>355987.347520978</v>
       </c>
       <c r="AE2" t="n">
-        <v>383852.6362934773</v>
+        <v>487077.5939315688</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398340910173512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>347218.2794261856</v>
+        <v>440591.5919844356</v>
       </c>
     </row>
     <row r="3">
@@ -14719,28 +14719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.8655614517907</v>
+        <v>317.8999966676911</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.6135727025376</v>
+        <v>434.9648001987713</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.7241369920973</v>
+        <v>393.452370144731</v>
       </c>
       <c r="AD3" t="n">
-        <v>251865.5614517907</v>
+        <v>317899.9966676912</v>
       </c>
       <c r="AE3" t="n">
-        <v>344613.5727025376</v>
+        <v>434964.8001987713</v>
       </c>
       <c r="AF3" t="n">
         <v>1.504022213905212e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>311724.1369920973</v>
+        <v>393452.370144731</v>
       </c>
     </row>
   </sheetData>
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.111876838825</v>
+        <v>476.0390885732203</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.76828041223</v>
+        <v>651.337682348267</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.8261848781725</v>
+        <v>589.1749281031264</v>
       </c>
       <c r="AD2" t="n">
-        <v>390111.8768388249</v>
+        <v>476039.0885732203</v>
       </c>
       <c r="AE2" t="n">
-        <v>533768.2804122299</v>
+        <v>651337.6823482669</v>
       </c>
       <c r="AF2" t="n">
         <v>1.052209313070538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>482826.1848781725</v>
+        <v>589174.9281031264</v>
       </c>
     </row>
     <row r="3">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.0089012083729</v>
+        <v>313.8935368522313</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.9684758967685</v>
+        <v>429.4829851267267</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.7132388990166</v>
+        <v>388.4937318093865</v>
       </c>
       <c r="AD3" t="n">
-        <v>247008.9012083729</v>
+        <v>313893.5368522312</v>
       </c>
       <c r="AE3" t="n">
-        <v>337968.4758967685</v>
+        <v>429482.9851267267</v>
       </c>
       <c r="AF3" t="n">
         <v>1.400153066649248e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.775</v>
       </c>
       <c r="AH3" t="n">
-        <v>305713.2388990166</v>
+        <v>388493.7318093865</v>
       </c>
     </row>
   </sheetData>
